--- a/pdn_project_allocation/testdata/test3_n60_two_equal_solutions.xlsx
+++ b/pdn_project_allocation/testdata/test3_n60_two_equal_solutions.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Student_preferences" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Supervisor_preferences" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Supervisors" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Projects" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Student_preferences" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Supervisor_preferences" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,12 +23,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="123">
-  <si>
-    <t xml:space="preserve">Project_name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="126">
+  <si>
+    <t xml:space="preserve">Supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max_number_of_projects</t>
   </si>
   <si>
     <t xml:space="preserve">Max_number_of_students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project</t>
   </si>
   <si>
     <t xml:space="preserve">P1</t>
@@ -476,518 +486,744 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.15"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B61"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1001,213 +1237,212 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BI61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B2:B61 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="0" width="3.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="11" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="62" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG1" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="BB1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="BC1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF1" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG1" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="BH1" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -1227,7 +1462,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -1247,7 +1482,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -1267,7 +1502,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -1287,7 +1522,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -1307,7 +1542,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1</v>
@@ -1327,7 +1562,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
@@ -1347,7 +1582,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>1</v>
@@ -1367,7 +1602,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>1</v>
@@ -1387,7 +1622,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
@@ -1407,7 +1642,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>1</v>
@@ -1427,7 +1662,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>1</v>
@@ -1447,7 +1682,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>1</v>
@@ -1467,7 +1702,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>1</v>
@@ -1487,7 +1722,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>1</v>
@@ -1507,7 +1742,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>1</v>
@@ -1527,7 +1762,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>1</v>
@@ -1547,7 +1782,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>1</v>
@@ -1567,7 +1802,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="T20" s="0" t="n">
         <v>1</v>
@@ -1587,7 +1822,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="U21" s="0" t="n">
         <v>1</v>
@@ -1607,7 +1842,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V22" s="0" t="n">
         <v>1</v>
@@ -1627,7 +1862,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W23" s="0" t="n">
         <v>1</v>
@@ -1647,7 +1882,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X24" s="0" t="n">
         <v>1</v>
@@ -1667,7 +1902,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Y25" s="0" t="n">
         <v>1</v>
@@ -1687,7 +1922,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Z26" s="0" t="n">
         <v>1</v>
@@ -1707,7 +1942,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA27" s="0" t="n">
         <v>1</v>
@@ -1727,7 +1962,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AB28" s="0" t="n">
         <v>1</v>
@@ -1747,7 +1982,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AC29" s="0" t="n">
         <v>1</v>
@@ -1767,7 +2002,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AD30" s="0" t="n">
         <v>1</v>
@@ -1787,7 +2022,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AE31" s="0" t="n">
         <v>1</v>
@@ -1807,7 +2042,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>1</v>
@@ -1827,7 +2062,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AG33" s="0" t="n">
         <v>1</v>
@@ -1847,7 +2082,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AH34" s="0" t="n">
         <v>1</v>
@@ -1867,7 +2102,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AI35" s="0" t="n">
         <v>1</v>
@@ -1887,7 +2122,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AJ36" s="0" t="n">
         <v>1</v>
@@ -1907,7 +2142,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK37" s="0" t="n">
         <v>1</v>
@@ -1927,7 +2162,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AL38" s="0" t="n">
         <v>1</v>
@@ -1947,7 +2182,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AM39" s="0" t="n">
         <v>1</v>
@@ -1967,7 +2202,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AN40" s="0" t="n">
         <v>1</v>
@@ -1987,7 +2222,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AO41" s="0" t="n">
         <v>1</v>
@@ -2007,7 +2242,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AP42" s="0" t="n">
         <v>1</v>
@@ -2027,7 +2262,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AQ43" s="0" t="n">
         <v>1</v>
@@ -2047,7 +2282,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AR44" s="0" t="n">
         <v>1</v>
@@ -2067,7 +2302,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AS45" s="0" t="n">
         <v>1</v>
@@ -2087,7 +2322,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AT46" s="0" t="n">
         <v>1</v>
@@ -2107,7 +2342,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AU47" s="0" t="n">
         <v>1</v>
@@ -2127,7 +2362,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AV48" s="0" t="n">
         <v>1</v>
@@ -2147,7 +2382,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AW49" s="0" t="n">
         <v>1</v>
@@ -2167,7 +2402,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AX50" s="0" t="n">
         <v>1</v>
@@ -2187,7 +2422,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AY51" s="0" t="n">
         <v>1</v>
@@ -2207,7 +2442,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AZ52" s="0" t="n">
         <v>1</v>
@@ -2227,7 +2462,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BA53" s="0" t="n">
         <v>1</v>
@@ -2247,7 +2482,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BB54" s="0" t="n">
         <v>1</v>
@@ -2267,7 +2502,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="BC55" s="0" t="n">
         <v>1</v>
@@ -2287,7 +2522,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BD56" s="0" t="n">
         <v>1</v>
@@ -2307,7 +2542,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BE57" s="0" t="n">
         <v>1</v>
@@ -2327,7 +2562,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>5</v>
@@ -2347,7 +2582,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>4</v>
@@ -2367,7 +2602,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3</v>
@@ -2387,7 +2622,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2</v>
@@ -2416,505 +2651,504 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BI61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B2:B61 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="0" width="3.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="11" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="62" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
